--- a/xls/schema/oracle/gameAdmin1.xlsx
+++ b/xls/schema/oracle/gameAdmin1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="760" windowWidth="24480" windowHeight="14940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1600" yWindow="760" windowWidth="24480" windowHeight="14940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Domain" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
   <si>
     <t>mon</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -363,13 +363,19 @@
   </si>
   <si>
     <t>FLOAT(24)</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>日期</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -446,6 +452,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -467,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -490,8 +503,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -510,8 +534,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -544,8 +569,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -557,6 +584,7 @@
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 5" xfId="3"/>
@@ -992,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1209,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1399,8 +1427,23 @@
         <v>65</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/xls/schema/oracle/gameAdmin1.xlsx
+++ b/xls/schema/oracle/gameAdmin1.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
   <si>
     <t>mon</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>日期</t>
+  </si>
+  <si>
+    <t>time2</t>
+  </si>
+  <si>
+    <t>日期2</t>
   </si>
 </sst>
 </file>
@@ -515,7 +521,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -530,6 +536,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -572,7 +580,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -585,6 +593,8 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 5" xfId="3"/>
@@ -1237,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1439,6 +1449,17 @@
       </c>
       <c r="F12" s="15" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
